--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2023-2024\summer\Models\TIMES_MID_STUDENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48132F81-F191-4F1E-8083-16E473A2E287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="46290" windowHeight="18810" tabRatio="901" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,14 +40,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -354,13 +353,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="I5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="J5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1362,7 +1361,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1464,6 +1463,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
@@ -1902,100 +1903,127 @@
     <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2014,40 +2042,13 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="Normal_MIN" xfId="2" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="Normal_PRC" xfId="3" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal_MIN" xfId="2"/>
+    <cellStyle name="Normal_PRC" xfId="3"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2068,7 +2069,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -2549,7 +2550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:I21"/>
   <sheetViews>
@@ -2557,21 +2558,21 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="26" t="s">
         <v>83</v>
       </c>
@@ -2591,7 +2592,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="2:9" ht="17.45" customHeight="1">
       <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="39.6">
+    <row r="6" spans="2:9" ht="38.25">
       <c r="B6" s="55" t="s">
         <v>87</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="53.4" thickBot="1">
+    <row r="7" spans="2:9" ht="51.75" thickBot="1">
       <c r="B7" s="44" t="s">
         <v>101</v>
       </c>
@@ -2776,11 +2777,11 @@
       <c r="C13" s="53"/>
       <c r="E13" s="53"/>
     </row>
-    <row r="16" spans="2:9" ht="13.8" thickBot="1">
-      <c r="B16" s="60" t="s">
+    <row r="16" spans="2:9" ht="13.5" thickBot="1">
+      <c r="B16" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="82"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="49" t="s">
@@ -2814,7 +2815,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="13.8" thickBot="1">
+    <row r="21" spans="2:3" ht="13.5" thickBot="1">
       <c r="B21" s="52" t="s">
         <v>47</v>
       </c>
@@ -2835,24 +2836,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L10" sqref="L10:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3022,13 +3023,13 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
-      <c r="L10" s="105" t="s">
+      <c r="L10" s="84" t="s">
         <v>158</v>
       </c>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" customHeight="1">
       <c r="B11" s="34" t="s">
@@ -3050,11 +3051,11 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" customHeight="1">
       <c r="B12" s="30" t="s">
@@ -3103,11 +3104,11 @@
       <c r="J13" s="48"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="51" t="s">
@@ -3189,7 +3190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="13.8" thickBot="1">
+    <row r="26" spans="2:4" ht="13.5" thickBot="1">
       <c r="B26" s="52" t="s">
         <v>66</v>
       </c>
@@ -3212,32 +3213,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="10" width="15.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="23" width="6.77734375" customWidth="1"/>
-    <col min="24" max="30" width="9.6640625" customWidth="1"/>
-    <col min="31" max="37" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="10" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="23" width="6.7109375" customWidth="1"/>
+    <col min="24" max="30" width="9.7109375" customWidth="1"/>
+    <col min="31" max="37" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" ht="17.399999999999999">
+    <row r="2" spans="2:37" ht="18">
       <c r="B2" s="8" t="s">
         <v>85</v>
       </c>
@@ -3277,7 +3278,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:37" ht="31.2" customHeight="1" thickBot="1">
+    <row r="5" spans="2:37" ht="31.15" customHeight="1" thickBot="1">
       <c r="B5" s="54" t="s">
         <v>14</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>121</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="82"/>
+      <c r="J5" s="74"/>
       <c r="N5" s="54" t="s">
         <v>14</v>
       </c>
@@ -3310,67 +3311,67 @@
       <c r="P5" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="98" t="s">
+      <c r="Q5" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="R5" s="99" t="s">
+      <c r="R5" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="S5" s="99" t="s">
+      <c r="S5" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="T5" s="99" t="s">
+      <c r="T5" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="U5" s="99" t="s">
+      <c r="U5" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="V5" s="99" t="s">
+      <c r="V5" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="W5" s="100" t="s">
+      <c r="W5" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="X5" s="99" t="s">
+      <c r="X5" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="Y5" s="99" t="s">
+      <c r="Y5" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="Z5" s="99" t="s">
+      <c r="Z5" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="AA5" s="99" t="s">
+      <c r="AA5" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="AB5" s="99" t="s">
+      <c r="AB5" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="AC5" s="99" t="s">
+      <c r="AC5" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="AD5" s="100" t="s">
+      <c r="AD5" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="AE5" s="99" t="s">
+      <c r="AE5" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="AF5" s="99" t="s">
+      <c r="AF5" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="AG5" s="99" t="s">
+      <c r="AG5" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="AH5" s="99" t="s">
+      <c r="AH5" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="AI5" s="99" t="s">
+      <c r="AI5" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="AJ5" s="99" t="s">
+      <c r="AJ5" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="AK5" s="100" t="s">
+      <c r="AK5" s="77" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3397,11 +3398,11 @@
         <v>124</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
       <c r="N6" s="55" t="s">
         <v>76</v>
       </c>
@@ -3411,33 +3412,33 @@
       <c r="P6" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="66" t="s">
+      <c r="Q6" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="63" t="s">
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="63" t="s">
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="65"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="87"/>
     </row>
     <row r="7" spans="2:37" ht="47.25" customHeight="1" thickBot="1">
       <c r="B7" s="44" t="s">
@@ -3462,9 +3463,9 @@
         <v>127</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="97"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
       <c r="N7" s="44" t="s">
         <v>116</v>
       </c>
@@ -3474,33 +3475,33 @@
       <c r="P7" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="Q7" s="68" t="s">
+      <c r="Q7" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="68" t="s">
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="68" t="s">
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="64"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="69"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="90"/>
     </row>
     <row r="8" spans="2:37" ht="15.75" customHeight="1">
       <c r="B8" s="13" t="str">
@@ -3520,12 +3521,14 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="J8" s="83" t="s">
+      <c r="H8" s="14">
+        <v>400</v>
+      </c>
+      <c r="J8" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
       <c r="N8" s="13" t="str">
         <f>B8</f>
         <v>MIN_HC</v>
@@ -3538,47 +3541,47 @@
         <f t="shared" si="0"/>
         <v>HC</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="66">
         <v>15</v>
       </c>
-      <c r="R8" s="70">
+      <c r="R8" s="62">
         <f>Q8*1.02</f>
         <v>15.3</v>
       </c>
-      <c r="S8" s="70">
+      <c r="S8" s="62">
         <f t="shared" ref="S8:W8" si="1">R8*1.02</f>
         <v>15.606000000000002</v>
       </c>
-      <c r="T8" s="70">
+      <c r="T8" s="62">
         <f t="shared" si="1"/>
         <v>15.918120000000002</v>
       </c>
-      <c r="U8" s="70">
+      <c r="U8" s="62">
         <f t="shared" si="1"/>
         <v>16.236482400000003</v>
       </c>
-      <c r="V8" s="70">
+      <c r="V8" s="62">
         <f t="shared" si="1"/>
         <v>16.561212048000005</v>
       </c>
-      <c r="W8" s="79">
+      <c r="W8" s="71">
         <f t="shared" si="1"/>
         <v>16.892436288960006</v>
       </c>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="61"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="61"/>
+      <c r="AI8" s="61"/>
+      <c r="AJ8" s="61"/>
+      <c r="AK8" s="61"/>
     </row>
     <row r="9" spans="2:37" ht="15.75" customHeight="1">
       <c r="B9" s="19" t="str">
@@ -3599,9 +3602,9 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
       <c r="N9" s="19" t="str">
         <f t="shared" ref="N9:N13" si="2">B9</f>
         <v>MIN_BC</v>
@@ -3614,30 +3617,30 @@
         <f t="shared" ref="P9:P13" si="4">D9</f>
         <v>BC</v>
       </c>
-      <c r="Q9" s="75">
+      <c r="Q9" s="67">
         <v>7</v>
       </c>
-      <c r="R9" s="71">
+      <c r="R9" s="63">
         <f>Q9*1.01</f>
         <v>7.07</v>
       </c>
-      <c r="S9" s="71">
+      <c r="S9" s="63">
         <f t="shared" ref="S9:W9" si="5">R9*1.01</f>
         <v>7.1407000000000007</v>
       </c>
-      <c r="T9" s="71">
+      <c r="T9" s="63">
         <f t="shared" si="5"/>
         <v>7.2121070000000005</v>
       </c>
-      <c r="U9" s="71">
+      <c r="U9" s="63">
         <f t="shared" si="5"/>
         <v>7.2842280700000002</v>
       </c>
-      <c r="V9" s="71">
+      <c r="V9" s="63">
         <f t="shared" si="5"/>
         <v>7.3570703506999999</v>
       </c>
-      <c r="W9" s="80">
+      <c r="W9" s="72">
         <f t="shared" si="5"/>
         <v>7.4306410542070003</v>
       </c>
@@ -3648,7 +3651,7 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
-      <c r="AE9" s="75"/>
+      <c r="AE9" s="67"/>
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -3675,9 +3678,9 @@
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="96"/>
       <c r="N10" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_NAT-GAS</v>
@@ -3690,30 +3693,30 @@
         <f t="shared" si="4"/>
         <v>NAT-GAS</v>
       </c>
-      <c r="Q10" s="76">
+      <c r="Q10" s="68">
         <v>28</v>
       </c>
-      <c r="R10" s="72">
+      <c r="R10" s="64">
         <f>Q10*1.03</f>
         <v>28.84</v>
       </c>
-      <c r="S10" s="72">
+      <c r="S10" s="64">
         <f t="shared" ref="S10:W10" si="6">R10*1.03</f>
         <v>29.705200000000001</v>
       </c>
-      <c r="T10" s="72">
+      <c r="T10" s="64">
         <f t="shared" si="6"/>
         <v>30.596356000000004</v>
       </c>
-      <c r="U10" s="72">
+      <c r="U10" s="64">
         <f t="shared" si="6"/>
         <v>31.514246680000003</v>
       </c>
-      <c r="V10" s="72">
+      <c r="V10" s="64">
         <f t="shared" si="6"/>
         <v>32.459674080400006</v>
       </c>
-      <c r="W10" s="81">
+      <c r="W10" s="73">
         <f t="shared" si="6"/>
         <v>33.433464302812006</v>
       </c>
@@ -3724,7 +3727,7 @@
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
-      <c r="AE10" s="76"/>
+      <c r="AE10" s="68"/>
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="15"/>
@@ -3751,9 +3754,9 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
       <c r="N11" s="19" t="str">
         <f t="shared" si="2"/>
         <v>IMP_NAT-GAS</v>
@@ -3766,30 +3769,30 @@
         <f t="shared" si="4"/>
         <v>NAT-GAS</v>
       </c>
-      <c r="Q11" s="75">
+      <c r="Q11" s="67">
         <v>30</v>
       </c>
-      <c r="R11" s="71">
+      <c r="R11" s="63">
         <f>Q11*0.99</f>
         <v>29.7</v>
       </c>
-      <c r="S11" s="71">
+      <c r="S11" s="63">
         <f t="shared" ref="S11:W11" si="7">R11*0.99</f>
         <v>29.402999999999999</v>
       </c>
-      <c r="T11" s="71">
+      <c r="T11" s="63">
         <f t="shared" si="7"/>
         <v>29.108969999999999</v>
       </c>
-      <c r="U11" s="71">
+      <c r="U11" s="63">
         <f t="shared" si="7"/>
         <v>28.817880299999999</v>
       </c>
-      <c r="V11" s="71">
+      <c r="V11" s="63">
         <f t="shared" si="7"/>
         <v>28.529701496999998</v>
       </c>
-      <c r="W11" s="80">
+      <c r="W11" s="72">
         <f t="shared" si="7"/>
         <v>28.244404482029999</v>
       </c>
@@ -3800,7 +3803,7 @@
       <c r="AB11" s="22"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="22"/>
-      <c r="AE11" s="75"/>
+      <c r="AE11" s="67"/>
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="22"/>
@@ -3827,9 +3830,9 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96"/>
       <c r="N12" s="13" t="str">
         <f t="shared" si="2"/>
         <v>MIN_WIND-ON</v>
@@ -3842,25 +3845,25 @@
         <f t="shared" si="4"/>
         <v>WIND-ON</v>
       </c>
-      <c r="Q12" s="77">
+      <c r="Q12" s="69">
         <v>1E-3</v>
       </c>
-      <c r="R12" s="73">
+      <c r="R12" s="65">
         <v>1E-3</v>
       </c>
-      <c r="S12" s="73">
+      <c r="S12" s="65">
         <v>1E-3</v>
       </c>
-      <c r="T12" s="73">
+      <c r="T12" s="65">
         <v>1E-3</v>
       </c>
-      <c r="U12" s="73">
+      <c r="U12" s="65">
         <v>1E-3</v>
       </c>
-      <c r="V12" s="73">
+      <c r="V12" s="65">
         <v>1E-3</v>
       </c>
-      <c r="W12" s="103">
+      <c r="W12" s="80">
         <v>1E-3</v>
       </c>
       <c r="X12" s="14"/>
@@ -3870,7 +3873,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
-      <c r="AE12" s="101"/>
+      <c r="AE12" s="78"/>
       <c r="AF12" s="14"/>
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
@@ -3897,9 +3900,9 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="99"/>
       <c r="N13" s="23" t="str">
         <f t="shared" si="2"/>
         <v>MIN_SOLAR</v>
@@ -3912,7 +3915,7 @@
         <f t="shared" si="4"/>
         <v>SOLAR</v>
       </c>
-      <c r="Q13" s="78">
+      <c r="Q13" s="70">
         <v>1E-3</v>
       </c>
       <c r="R13" s="59">
@@ -3930,7 +3933,7 @@
       <c r="V13" s="59">
         <v>1E-3</v>
       </c>
-      <c r="W13" s="104">
+      <c r="W13" s="81">
         <v>1E-3</v>
       </c>
       <c r="X13" s="25"/>
@@ -3940,7 +3943,7 @@
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
       <c r="AD13" s="25"/>
-      <c r="AE13" s="102"/>
+      <c r="AE13" s="79"/>
       <c r="AF13" s="25"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
@@ -3948,7 +3951,7 @@
       <c r="AJ13" s="25"/>
       <c r="AK13" s="25"/>
     </row>
-    <row r="17" spans="2:7" ht="17.399999999999999">
+    <row r="17" spans="2:7" ht="18">
       <c r="B17" s="8" t="s">
         <v>128</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="39.6">
+    <row r="20" spans="2:7" ht="38.25">
       <c r="B20" s="55" t="s">
         <v>76</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="53.4" thickBot="1">
+    <row r="21" spans="2:7" ht="51.75" thickBot="1">
       <c r="B21" s="44" t="s">
         <v>116</v>
       </c>
@@ -4038,40 +4041,40 @@
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="60"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="62"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="19" t="str">
-        <f>B9</f>
+        <f t="shared" ref="B25:E29" si="8">B9</f>
         <v>MIN_BC</v>
       </c>
       <c r="C25" s="19" t="str">
-        <f>C9</f>
+        <f t="shared" si="8"/>
         <v>Brown Coal Domestic Supply</v>
       </c>
       <c r="D25" s="20" t="str">
-        <f>D9</f>
+        <f t="shared" si="8"/>
         <v>BC</v>
       </c>
       <c r="E25" s="22">
-        <f>E9</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="F25" s="21"/>
@@ -4079,19 +4082,19 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="13" t="str">
-        <f>B10</f>
+        <f t="shared" si="8"/>
         <v>MIN_NAT-GAS</v>
       </c>
       <c r="C26" s="13" t="str">
-        <f>C10</f>
+        <f t="shared" si="8"/>
         <v>Natural Gas Domestic Supply</v>
       </c>
       <c r="D26" s="18" t="str">
-        <f>D10</f>
+        <f t="shared" si="8"/>
         <v>NAT-GAS</v>
       </c>
       <c r="E26" s="15">
-        <f>E10</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="F26" s="14"/>
@@ -4099,19 +4102,19 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="19" t="str">
-        <f>B11</f>
+        <f t="shared" si="8"/>
         <v>IMP_NAT-GAS</v>
       </c>
       <c r="C27" s="19" t="str">
-        <f>C11</f>
+        <f t="shared" si="8"/>
         <v>Natural Gas Imports</v>
       </c>
       <c r="D27" s="20" t="str">
-        <f>D11</f>
+        <f t="shared" si="8"/>
         <v>NAT-GAS</v>
       </c>
       <c r="E27" s="22">
-        <f>E11</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="F27" s="21"/>
@@ -4119,39 +4122,39 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="13" t="str">
-        <f>B12</f>
+        <f t="shared" si="8"/>
         <v>MIN_WIND-ON</v>
       </c>
       <c r="C28" s="13" t="str">
-        <f>C12</f>
+        <f t="shared" si="8"/>
         <v>Wind Onshore</v>
       </c>
       <c r="D28" s="17" t="str">
-        <f>D12</f>
+        <f t="shared" si="8"/>
         <v>WIND-ON</v>
       </c>
       <c r="E28" s="58">
-        <f>E12</f>
+        <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" ht="13.8" thickBot="1">
+    <row r="29" spans="2:7" ht="13.5" thickBot="1">
       <c r="B29" s="23" t="str">
-        <f>B13</f>
+        <f t="shared" si="8"/>
         <v>MIN_SOLAR</v>
       </c>
       <c r="C29" s="23" t="str">
-        <f>C13</f>
+        <f t="shared" si="8"/>
         <v>Solar</v>
       </c>
       <c r="D29" s="24" t="str">
-        <f>D13</f>
+        <f t="shared" si="8"/>
         <v>SOLAR</v>
       </c>
       <c r="E29" s="59">
-        <f>E13</f>
+        <f t="shared" si="8"/>
         <v>1E-3</v>
       </c>
       <c r="F29" s="25"/>
@@ -4176,9 +4179,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4359,15 +4365,39 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40A0E830-542D-468D-A5E9-7E4D18F716B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
+    <ds:schemaRef ds:uri="58a8bd51-6561-42ef-8e0a-a55781e8d45f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4378,16 +4408,4 @@
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40A0E830-542D-468D-A5E9-7E4D18F716B4}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -3217,7 +3217,7 @@
   <dimension ref="B2:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3519,11 +3519,11 @@
       <c r="E8" s="15">
         <v>15</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14">
+        <v>400</v>
+      </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="14">
-        <v>400</v>
-      </c>
+      <c r="H8" s="14"/>
       <c r="J8" s="91" t="s">
         <v>148</v>
       </c>
